--- a/Bases_de_Dados_(2022-2023)/India Indian Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/India Indian Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,9 @@
     <t>['36', '58']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -566,9 +569,6 @@
   </si>
   <si>
     <t>['2', '26', '58']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>['68', '90']</t>
+  </si>
+  <si>
+    <t>['30', '66']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1309,7 @@
         <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.1</v>
@@ -1688,7 +1691,7 @@
         <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1778,7 +1781,7 @@
         <v>1.91</v>
       </c>
       <c r="AT4">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1879,7 +1882,7 @@
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2070,7 +2073,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2261,7 +2264,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2452,7 +2455,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2643,7 +2646,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3025,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3216,7 +3219,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3407,7 +3410,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3980,7 +3983,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4362,7 +4365,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4452,7 +4455,7 @@
         <v>2.1</v>
       </c>
       <c r="AT18">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU18">
         <v>2.52</v>
@@ -5699,7 +5702,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5890,7 +5893,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6272,7 +6275,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6550,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>1.2</v>
@@ -6654,7 +6657,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6744,7 +6747,7 @@
         <v>1.3</v>
       </c>
       <c r="AT30">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU30">
         <v>1.83</v>
@@ -6845,7 +6848,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7227,7 +7230,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7418,7 +7421,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7991,7 +7994,7 @@
         <v>103</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8182,7 +8185,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8272,7 +8275,7 @@
         <v>0.4</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU38">
         <v>1.14</v>
@@ -8373,7 +8376,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8755,7 +8758,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8946,7 +8949,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9606,7 +9609,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>1.27</v>
@@ -11137,7 +11140,7 @@
         <v>0.7</v>
       </c>
       <c r="AT53">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU53">
         <v>1.08</v>
@@ -11325,7 +11328,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.3</v>
@@ -12089,7 +12092,7 @@
         <v>2.25</v>
       </c>
       <c r="AS58">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>2.2</v>
@@ -13429,7 +13432,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -15145,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.91</v>
@@ -15339,7 +15342,7 @@
         <v>2.18</v>
       </c>
       <c r="AT75">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU75">
         <v>1.92</v>
@@ -16867,7 +16870,7 @@
         <v>0.6</v>
       </c>
       <c r="AT83">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17055,7 +17058,7 @@
         <v>1.57</v>
       </c>
       <c r="AS84">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>1.4</v>
@@ -19541,7 +19544,7 @@
         <v>1.8</v>
       </c>
       <c r="AT97">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU97">
         <v>1.64</v>
@@ -19729,7 +19732,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0.91</v>
@@ -20302,10 +20305,10 @@
         <v>2.78</v>
       </c>
       <c r="AS101">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU101">
         <v>1.64</v>
@@ -21639,7 +21642,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.9</v>
@@ -22403,7 +22406,7 @@
         <v>1.55</v>
       </c>
       <c r="AS112">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT112">
         <v>1.48</v>
@@ -22785,10 +22788,10 @@
         <v>1.76</v>
       </c>
       <c r="AS114">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="AT114">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AU114">
         <v>1.89</v>
@@ -23031,6 +23034,197 @@
       </c>
       <c r="BK115">
         <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5536521</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>161</v>
+      </c>
+      <c r="P116" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>9</v>
+      </c>
+      <c r="S116">
+        <v>13</v>
+      </c>
+      <c r="T116">
+        <v>3.2</v>
+      </c>
+      <c r="U116">
+        <v>2.05</v>
+      </c>
+      <c r="V116">
+        <v>2.5</v>
+      </c>
+      <c r="W116">
+        <v>1.29</v>
+      </c>
+      <c r="X116">
+        <v>2.95</v>
+      </c>
+      <c r="Y116">
+        <v>2.4</v>
+      </c>
+      <c r="Z116">
+        <v>1.43</v>
+      </c>
+      <c r="AA116">
+        <v>6</v>
+      </c>
+      <c r="AB116">
+        <v>1.1</v>
+      </c>
+      <c r="AC116">
+        <v>3.25</v>
+      </c>
+      <c r="AD116">
+        <v>3.4</v>
+      </c>
+      <c r="AE116">
+        <v>2</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>13</v>
+      </c>
+      <c r="AH116">
+        <v>1.19</v>
+      </c>
+      <c r="AI116">
+        <v>3.9</v>
+      </c>
+      <c r="AJ116">
+        <v>1.67</v>
+      </c>
+      <c r="AK116">
+        <v>2.1</v>
+      </c>
+      <c r="AL116">
+        <v>1.48</v>
+      </c>
+      <c r="AM116">
+        <v>2.25</v>
+      </c>
+      <c r="AN116">
+        <v>1.6</v>
+      </c>
+      <c r="AO116">
+        <v>1.27</v>
+      </c>
+      <c r="AP116">
+        <v>1.32</v>
+      </c>
+      <c r="AQ116">
+        <v>1.82</v>
+      </c>
+      <c r="AR116">
+        <v>2.19</v>
+      </c>
+      <c r="AS116">
+        <v>1.74</v>
+      </c>
+      <c r="AT116">
+        <v>2.23</v>
+      </c>
+      <c r="AU116">
+        <v>1.61</v>
+      </c>
+      <c r="AV116">
+        <v>2.03</v>
+      </c>
+      <c r="AW116">
+        <v>3.64</v>
+      </c>
+      <c r="AX116">
+        <v>2.62</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>1.67</v>
+      </c>
+      <c r="BA116">
+        <v>1.16</v>
+      </c>
+      <c r="BB116">
+        <v>1.26</v>
+      </c>
+      <c r="BC116">
+        <v>1.49</v>
+      </c>
+      <c r="BD116">
+        <v>1.85</v>
+      </c>
+      <c r="BE116">
+        <v>2.34</v>
+      </c>
+      <c r="BF116">
+        <v>10</v>
+      </c>
+      <c r="BG116">
+        <v>9</v>
+      </c>
+      <c r="BH116">
+        <v>9</v>
+      </c>
+      <c r="BI116">
+        <v>9</v>
+      </c>
+      <c r="BJ116">
+        <v>19</v>
+      </c>
+      <c r="BK116">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/India Indian Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/India Indian Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1065,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT5">
         <v>1.4</v>
@@ -2545,7 +2545,7 @@
         <v>0.4</v>
       </c>
       <c r="AT8">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT20">
         <v>1.2</v>
@@ -6174,7 +6174,7 @@
         <v>0.6</v>
       </c>
       <c r="AT27">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU27">
         <v>1.28</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT28">
         <v>0.1</v>
@@ -8654,10 +8654,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT40">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU40">
         <v>2.22</v>
@@ -9421,7 +9421,7 @@
         <v>1.3</v>
       </c>
       <c r="AT44">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9991,7 +9991,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT47">
         <v>1.3</v>
@@ -12095,7 +12095,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU58">
         <v>1.79</v>
@@ -12856,7 +12856,7 @@
         <v>1.17</v>
       </c>
       <c r="AS62">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT62">
         <v>0.9</v>
@@ -13814,7 +13814,7 @@
         <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU67">
         <v>1.6</v>
@@ -15339,7 +15339,7 @@
         <v>2.67</v>
       </c>
       <c r="AS75">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT75">
         <v>2.55</v>
@@ -16106,7 +16106,7 @@
         <v>0.7</v>
       </c>
       <c r="AT79">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU79">
         <v>1.09</v>
@@ -17249,7 +17249,7 @@
         <v>0.86</v>
       </c>
       <c r="AS85">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT85">
         <v>0.91</v>
@@ -18016,7 +18016,7 @@
         <v>1.91</v>
       </c>
       <c r="AT89">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU89">
         <v>1.95</v>
@@ -18395,7 +18395,7 @@
         <v>1.11</v>
       </c>
       <c r="AS91">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT91">
         <v>1.45</v>
@@ -19353,7 +19353,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -21069,7 +21069,7 @@
         <v>1.11</v>
       </c>
       <c r="AS105">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT105">
         <v>0.91</v>
@@ -22218,7 +22218,7 @@
         <v>2.1</v>
       </c>
       <c r="AT111">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU111">
         <v>2.11</v>
@@ -22597,7 +22597,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AT113">
         <v>1.43</v>
@@ -22979,10 +22979,10 @@
         <v>1.76</v>
       </c>
       <c r="AS115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT115">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AU115">
         <v>1.6</v>
@@ -23225,6 +23225,197 @@
       </c>
       <c r="BK116">
         <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5545391</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44998.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>82</v>
+      </c>
+      <c r="P117" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>14</v>
+      </c>
+      <c r="T117">
+        <v>2.72</v>
+      </c>
+      <c r="U117">
+        <v>2.2</v>
+      </c>
+      <c r="V117">
+        <v>4.1</v>
+      </c>
+      <c r="W117">
+        <v>1.39</v>
+      </c>
+      <c r="X117">
+        <v>2.97</v>
+      </c>
+      <c r="Y117">
+        <v>2.95</v>
+      </c>
+      <c r="Z117">
+        <v>1.39</v>
+      </c>
+      <c r="AA117">
+        <v>6</v>
+      </c>
+      <c r="AB117">
+        <v>1.11</v>
+      </c>
+      <c r="AC117">
+        <v>2.1</v>
+      </c>
+      <c r="AD117">
+        <v>3.4</v>
+      </c>
+      <c r="AE117">
+        <v>3.25</v>
+      </c>
+      <c r="AF117">
+        <v>1.05</v>
+      </c>
+      <c r="AG117">
+        <v>9</v>
+      </c>
+      <c r="AH117">
+        <v>1.25</v>
+      </c>
+      <c r="AI117">
+        <v>3.74</v>
+      </c>
+      <c r="AJ117">
+        <v>1.87</v>
+      </c>
+      <c r="AK117">
+        <v>1.87</v>
+      </c>
+      <c r="AL117">
+        <v>1.77</v>
+      </c>
+      <c r="AM117">
+        <v>2.02</v>
+      </c>
+      <c r="AN117">
+        <v>1.29</v>
+      </c>
+      <c r="AO117">
+        <v>1.32</v>
+      </c>
+      <c r="AP117">
+        <v>1.74</v>
+      </c>
+      <c r="AQ117">
+        <v>1.73</v>
+      </c>
+      <c r="AR117">
+        <v>2.05</v>
+      </c>
+      <c r="AS117">
+        <v>1.7</v>
+      </c>
+      <c r="AT117">
+        <v>2</v>
+      </c>
+      <c r="AU117">
+        <v>1.9</v>
+      </c>
+      <c r="AV117">
+        <v>1.49</v>
+      </c>
+      <c r="AW117">
+        <v>3.39</v>
+      </c>
+      <c r="AX117">
+        <v>1.62</v>
+      </c>
+      <c r="AY117">
+        <v>7</v>
+      </c>
+      <c r="AZ117">
+        <v>3.18</v>
+      </c>
+      <c r="BA117">
+        <v>1.24</v>
+      </c>
+      <c r="BB117">
+        <v>1.54</v>
+      </c>
+      <c r="BC117">
+        <v>1.88</v>
+      </c>
+      <c r="BD117">
+        <v>2.31</v>
+      </c>
+      <c r="BE117">
+        <v>2.75</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>2</v>
+      </c>
+      <c r="BH117">
+        <v>9</v>
+      </c>
+      <c r="BI117">
+        <v>4</v>
+      </c>
+      <c r="BJ117">
+        <v>13</v>
+      </c>
+      <c r="BK117">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/India Indian Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/India Indian Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.4</v>
@@ -2324,7 +2324,7 @@
         <v>1.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.91</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU15" t="n">
         <v>1.82</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU17" t="n">
         <v>1.96</v>
@@ -4554,7 +4554,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.2</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>0.1</v>
@@ -6993,7 +6993,7 @@
         <v>1.91</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.68</v>
@@ -8414,7 +8414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>2.09</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>1.3</v>
@@ -10850,7 +10850,7 @@
         <v>2.1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU51" t="n">
         <v>2.15</v>
@@ -13080,7 +13080,7 @@
         <v>1.17</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.9</v>
@@ -13489,7 +13489,7 @@
         <v>0.7</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU64" t="n">
         <v>1.04</v>
@@ -14301,7 +14301,7 @@
         <v>0.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU68" t="n">
         <v>1.17</v>
@@ -15719,7 +15719,7 @@
         <v>2.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>2.55</v>
@@ -16128,7 +16128,7 @@
         <v>0.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU77" t="n">
         <v>1.49</v>
@@ -17749,7 +17749,7 @@
         <v>0.86</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>0.91</v>
@@ -18967,10 +18967,10 @@
         <v>1.11</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU91" t="n">
         <v>1.99</v>
@@ -21809,7 +21809,7 @@
         <v>1.11</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
         <v>0.91</v>
@@ -23230,7 +23230,7 @@
         <v>1.55</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AT112" t="n">
         <v>1.48</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
         <v>1.43</v>
@@ -23639,7 +23639,7 @@
         <v>2.23</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AU114" t="n">
         <v>1.89</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AU115" t="n">
         <v>1.6</v>
@@ -24042,7 +24042,7 @@
         <v>2.19</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AT116" t="n">
         <v>2.23</v>
@@ -24245,7 +24245,7 @@
         <v>2.05</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
         <v>2</v>
@@ -24300,6 +24300,209 @@
       </c>
       <c r="BK117" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5621089</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>India Indian Super League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>ATK Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['14', '85']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['45+5', '78']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>7</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
